--- a/biology/Biologie cellulaire et moléculaire/Nucléoside_diphosphate_kinase/Nucléoside_diphosphate_kinase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nucléoside_diphosphate_kinase/Nucléoside_diphosphate_kinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9oside_diphosphate_kinase</t>
+          <t>Nucléoside_diphosphate_kinase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une nucléoside diphosphate kinase (NDK, aussi NDPK) est une phosphotransférase qui catalyse la réaction :
 ATP + nucléoside diphosphate  
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9oside_diphosphate_kinase</t>
+          <t>Nucléoside_diphosphate_kinase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fonction globale de la nucléoside diphosphate kinase est le transfert d'un groupe phosphate depuis un nucléoside triphosphate vers un nucléoside diphosphate.  À partir de l'adénosine triphosphate (ATP) et de la guanosine diphosphate (GDP), l'action de la NDPK donne de l'adénosine diphosphate (ADP) et de la guanosine triphosphate (GTP).
 ATP + GDP → ADP + GTP.
@@ -541,8 +555,8 @@
 Pour le transfert d'un phosphate de l'ATP vers le GDP, la réaction sera :
 NDPK + ATP → NDPK~ATP → NDPK-P~ADP → NDPK-P + ADP →
 NDPK-P + GDP → NDPK-P~GDP → NDPK~GTP → NDPK + GTP.
-Il permet l'activation de la protéine G[1].
-Finalement, ils interviennent dans différents processus biologiques, différenciation cellulaire, dissémination des métastases, fonction ciliaire[2]...
+Il permet l'activation de la protéine G.
+Finalement, ils interviennent dans différents processus biologiques, différenciation cellulaire, dissémination des métastases, fonction ciliaire...
 </t>
         </is>
       </c>
@@ -553,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9oside_diphosphate_kinase</t>
+          <t>Nucléoside_diphosphate_kinase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +585,9 @@
           <t>Procaryotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les procaryotes, la NDPK forme un homotétramère fonctionnel (E. coli, M. xanthus).
 </t>
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9oside_diphosphate_kinase</t>
+          <t>Nucléoside_diphosphate_kinase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,9 +618,11 @@
           <t>Eucaryotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe dix isoformes de NDPK chez l'homme[2] : de NDPK-A (nm23-H1) jusqu'à la NDPK-J(nm23-H10). Les deux NDPKs les plus abondantes (A et B) possèdent des structures très semblables, et peuvent se combiner en toutes proportions pour former des hétéro-hexamères fonctionnels[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe dix isoformes de NDPK chez l'homme : de NDPK-A (nm23-H1) jusqu'à la NDPK-J(nm23-H10). Les deux NDPKs les plus abondantes (A et B) possèdent des structures très semblables, et peuvent se combiner en toutes proportions pour former des hétéro-hexamères fonctionnels.
 En plus du transfert du phosphate gamma, d'autres fonctions lui ont été décrites. Actuellement la plus étudiée est celle de suppresseur de métastases.
 </t>
         </is>
